--- a/conf/Text.csv.xlsx
+++ b/conf/Text.csv.xlsx
@@ -22,7 +22,7 @@
     <t>Start</t>
   </si>
   <si>
-    <t>START</t>
+    <t>UPDATE</t>
   </si>
   <si>
     <t>Start_Markup</t>
@@ -297,12 +297,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -315,16 +321,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -341,13 +347,13 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -367,6 +373,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -518,9 +525,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -600,7 +607,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -627,10 +634,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -877,9 +884,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1157,7 +1164,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1184,10 +1191,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">

--- a/conf/Text.csv.xlsx
+++ b/conf/Text.csv.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
   <si>
     <t>место</t>
   </si>
@@ -22,19 +22,20 @@
     <t>Start</t>
   </si>
   <si>
-    <t>UPDATE</t>
+    <t>Добро пожаловать в бота выдачи VPN ❤️
+Воспользуйся кнопками ниже</t>
   </si>
   <si>
     <t>Start_Markup</t>
   </si>
   <si>
-    <t>главная</t>
+    <t>Главная</t>
   </si>
   <si>
     <t>Profile</t>
   </si>
   <si>
-    <t>профиль</t>
+    <t>🏠  Профиль</t>
   </si>
   <si>
     <t>Profile_Markup</t>
@@ -43,7 +44,7 @@
     <t>MyKeys</t>
   </si>
   <si>
-    <t>ключи:</t>
+    <t>Ключи:</t>
   </si>
   <si>
     <t>MyKeys_Iter</t>
@@ -61,82 +62,82 @@
     <t>MyKeys_Markup</t>
   </si>
   <si>
-    <t>мои ключи</t>
+    <t>Мои ключи</t>
   </si>
   <si>
     <t>Trouble_Markup</t>
   </si>
   <si>
-    <t>ключ не работает</t>
+    <t xml:space="preserve">Ключ не работает </t>
   </si>
   <si>
     <t>Trouble_Input</t>
   </si>
   <si>
-    <t>введите не работающий ключ</t>
+    <t>Введите не работающий ключ</t>
   </si>
   <si>
     <t>Trouble_Success</t>
   </si>
   <si>
-    <t>ваш ключ заменен на аналогичный: {PKey};
+    <t>Ваш ключ заменен на аналогичный: {PKey};
 Outline Url: {AUrl};</t>
   </si>
   <si>
     <t>Trouble_Failure</t>
   </si>
   <si>
-    <t>не удалось переиздать ключ по вашему сообщению.
-убедитесь, что вы ввели только активный ключ или обратитесь в поддержку.</t>
+    <t>Не удалось переиздать ключ по вашему сообщению.
+Убедитесь, что вы ввели только активный ключ или обратитесь в поддержку.</t>
   </si>
   <si>
     <t>Activate_Markup</t>
   </si>
   <si>
-    <t>активировать ключ</t>
+    <t>Активировать ключ</t>
   </si>
   <si>
     <t>Activate_Input</t>
   </si>
   <si>
-    <t>введите неактивный ключ для активации</t>
+    <t>Введите неактивный ключ для активации</t>
   </si>
   <si>
     <t>Activate_Success</t>
   </si>
   <si>
-    <t>активирован ключ: {PKey};
+    <t>Активирован ключ: {PKey};
 OutlineUrl для доступа к VPN: {AUrl};</t>
   </si>
   <si>
     <t>Activate_Failure</t>
   </si>
   <si>
-    <t>не удалось активировать ключ по вашему вводу</t>
+    <t>Не удалось активировать ключ по вашему вводу</t>
   </si>
   <si>
     <t>Admin_Failure</t>
   </si>
   <si>
-    <t>это не твое дело!</t>
+    <t>Это не твое дело!</t>
   </si>
   <si>
     <t>Admin_Create_Markup</t>
   </si>
   <si>
-    <t>создание ключей</t>
+    <t>Создание ключей</t>
   </si>
   <si>
     <t>Admin_Create_Input</t>
   </si>
   <si>
-    <t>введите количество (только цифры без разделительных символов) ключей и срок действия (сколько дней ключи будут действительны после активации)</t>
+    <t>Введите количество (только цифры без разделительных символов) ключей и срок действия (сколько дней ключи будут действительны после активации)</t>
   </si>
   <si>
     <t>Admin_Create_Success</t>
   </si>
   <si>
-    <t>создано {Count} ключей:</t>
+    <t>Создано {Count} ключей:</t>
   </si>
   <si>
     <t>Admin_Create_Success_Iter</t>
@@ -149,57 +150,61 @@
     <t>Admin_Create_Failure</t>
   </si>
   <si>
-    <t>не удалось создать ключ
-убедитесь, что вы ввели количество ключей и дней верно (цифры без разделительных символов)</t>
+    <t>Не удалось создать ключ.
+Убедитесь, что вы ввели количество ключей и дней верно (цифры без разделительных символов)</t>
   </si>
   <si>
     <t>Admin_Delete_Markup</t>
   </si>
   <si>
-    <t>удаление ключей</t>
+    <t>Удаление ключей</t>
   </si>
   <si>
     <t>Admin_Delete_Input</t>
   </si>
   <si>
-    <t>введите только ключ, одним сообщением, без разделительных символов</t>
+    <t>Введите только ключ, одним сообщением, без разделительных символов</t>
   </si>
   <si>
     <t>Admin_Delete_Success</t>
   </si>
   <si>
-    <t>удален ключ: {PKey}</t>
+    <t>Удален ключ: {PKey}</t>
   </si>
   <si>
     <t>Admin_Delete_Failure</t>
   </si>
   <si>
-    <t>не удалось удалить ключ
+    <t>Не удалось удалить ключ.
+Убедитесь, что вы ввели верный ключ (только ключ, одним сообщением, без лишних символов)</t>
+  </si>
+  <si>
+    <t>Admin_Payoff_Markup</t>
+  </si>
+  <si>
+    <t>Пересоздание ключей</t>
+  </si>
+  <si>
+    <t>Admin_Payoff_Input</t>
+  </si>
+  <si>
+    <t>Admin_Payoff_Success</t>
+  </si>
+  <si>
+    <t>Введенный вами ключ удален, новый ключ: {PKey}</t>
+  </si>
+  <si>
+    <t>Admin_Payoff_Failure</t>
+  </si>
+  <si>
+    <t>Не удалось удалить ключ
 убедитесь, что вы ввели верный ключ (только ключ, одним сообщением, без лишних символов)</t>
   </si>
   <si>
-    <t>Admin_Payoff_Markup</t>
-  </si>
-  <si>
-    <t>пересоздание ключей</t>
-  </si>
-  <si>
-    <t>Admin_Payoff_Input</t>
-  </si>
-  <si>
-    <t>Admin_Payoff_Success</t>
-  </si>
-  <si>
-    <t>введенный вами ключ удален, новый ключ: {PKey}</t>
-  </si>
-  <si>
-    <t>Admin_Payoff_Failure</t>
-  </si>
-  <si>
     <t>Admin_Help</t>
   </si>
   <si>
-    <t>🐀 помощь:
+    <t>Помощь:
  /admin_create [кол-во ключей] [кол-во дней] [кол-во часов] [кол-во минут] [кол-во секунд] - создать новые ключи с заданным сроком действия после активации;
  /admin_delete [ключ] - удалить существующий ключ;
  /admin_payoff [ключ] - удалить ключ и создать новый, неактивный
@@ -215,7 +220,7 @@
     <t>Help_Markup</t>
   </si>
   <si>
-    <t>помощь</t>
+    <t>Помощь</t>
   </si>
   <si>
     <t>Help</t>
@@ -224,53 +229,66 @@
     <t>Support_Markup</t>
   </si>
   <si>
-    <t>поддержка</t>
+    <t>👤 Тех. Поддержка</t>
   </si>
   <si>
     <t>Support</t>
   </si>
   <si>
-    <t>для контакта с поддержкой...</t>
+    <t>Для контакта с поддержкой…</t>
   </si>
   <si>
     <t>Info_Markup</t>
   </si>
   <si>
-    <t>инструкция</t>
+    <t>Инструкция</t>
   </si>
   <si>
     <t>Info</t>
   </si>
   <si>
-    <t>инструкция:
+    <t>Инструкция:
  /profile - вывести данные о моем профиле, включая все ключи; 
  /activate [ключ] - активировать существующий и не активированный ключ;
  /trouble - перевыпустить активированный ключ, не меняя его временных ограничений;
  /help - вывести это сообщение;</t>
   </si>
   <si>
+    <t>Cancel_Prompt</t>
+  </si>
+  <si>
+    <t>Введите “Отмена”, или команду “/cancel”, или команду “/start”, чтобы перейти на главную</t>
+  </si>
+  <si>
     <t>Cancel_Markup</t>
   </si>
   <si>
-    <t>отмена</t>
+    <t>Отмена</t>
   </si>
   <si>
     <t>Cancel</t>
   </si>
   <si>
-    <t>ввод отменен</t>
+    <t>Ввод отменен</t>
+  </si>
+  <si>
+    <t>Return_Prompt</t>
+  </si>
+  <si>
+    <t>Введите “Вернуться”, или команду “/return”, или команду “/start”, чтобы перейти на главную</t>
   </si>
   <si>
     <t>Return_Markup</t>
   </si>
   <si>
-    <t>вернуться</t>
+    <t>Вернуться</t>
   </si>
   <si>
     <t>Spam_Warning</t>
   </si>
   <si>
-    <t>прошу не отправлять таких запросов чаще чем раз в {Delay} секунд</t>
+    <t>Пожалуйста, не спамь🥺
+Попробуй еще раз через {Delay} секунд.</t>
   </si>
 </sst>
 </file>
@@ -1436,17 +1454,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1719" style="1" customWidth="1"/>
+    <col min="2" max="2" width="87.6719" style="1" customWidth="1"/>
+    <col min="3" max="5" width="8.85156" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
+    <row r="1" ht="13.5" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -1457,18 +1477,18 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="13.55" customHeight="1">
+    <row r="2" ht="13.5" customHeight="1">
       <c r="A2" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" t="s" s="4">
         <v>3</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
+    <row r="3" ht="13.5" customHeight="1">
       <c r="A3" t="s" s="2">
         <v>4</v>
       </c>
@@ -1479,7 +1499,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="13.55" customHeight="1">
+    <row r="4" ht="13.5" customHeight="1">
       <c r="A4" t="s" s="2">
         <v>6</v>
       </c>
@@ -1490,7 +1510,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
+    <row r="5" ht="13.5" customHeight="1">
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
@@ -1501,7 +1521,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="13.55" customHeight="1">
+    <row r="6" ht="13.5" customHeight="1">
       <c r="A6" t="s" s="2">
         <v>9</v>
       </c>
@@ -1512,7 +1532,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="91.55" customHeight="1">
+    <row r="7" ht="91.5" customHeight="1">
       <c r="A7" t="s" s="2">
         <v>11</v>
       </c>
@@ -1523,7 +1543,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="13.55" customHeight="1">
+    <row r="8" ht="13.5" customHeight="1">
       <c r="A8" t="s" s="2">
         <v>13</v>
       </c>
@@ -1534,7 +1554,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="13.55" customHeight="1">
+    <row r="9" ht="13.5" customHeight="1">
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
@@ -1545,7 +1565,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="13.55" customHeight="1">
+    <row r="10" ht="13.5" customHeight="1">
       <c r="A10" t="s" s="2">
         <v>17</v>
       </c>
@@ -1578,7 +1598,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" ht="13.55" customHeight="1">
+    <row r="13" ht="13.5" customHeight="1">
       <c r="A13" t="s" s="2">
         <v>23</v>
       </c>
@@ -1589,7 +1609,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" ht="13.55" customHeight="1">
+    <row r="14" ht="13.5" customHeight="1">
       <c r="A14" t="s" s="2">
         <v>25</v>
       </c>
@@ -1611,7 +1631,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" ht="13.55" customHeight="1">
+    <row r="16" ht="13.5" customHeight="1">
       <c r="A16" t="s" s="2">
         <v>29</v>
       </c>
@@ -1622,7 +1642,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" ht="13.55" customHeight="1">
+    <row r="17" ht="13.5" customHeight="1">
       <c r="A17" t="s" s="2">
         <v>31</v>
       </c>
@@ -1633,7 +1653,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" ht="13.55" customHeight="1">
+    <row r="18" ht="13.5" customHeight="1">
       <c r="A18" t="s" s="2">
         <v>33</v>
       </c>
@@ -1644,7 +1664,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" ht="13.55" customHeight="1">
+    <row r="19" ht="13.5" customHeight="1">
       <c r="A19" t="s" s="2">
         <v>35</v>
       </c>
@@ -1655,7 +1675,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" ht="13.55" customHeight="1">
+    <row r="20" ht="13.5" customHeight="1">
       <c r="A20" t="s" s="2">
         <v>37</v>
       </c>
@@ -1688,7 +1708,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" ht="13.55" customHeight="1">
+    <row r="23" ht="13.5" customHeight="1">
       <c r="A23" t="s" s="2">
         <v>43</v>
       </c>
@@ -1699,7 +1719,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" ht="13.55" customHeight="1">
+    <row r="24" ht="13.5" customHeight="1">
       <c r="A24" t="s" s="2">
         <v>45</v>
       </c>
@@ -1710,7 +1730,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" ht="13.55" customHeight="1">
+    <row r="25" ht="13.5" customHeight="1">
       <c r="A25" t="s" s="2">
         <v>47</v>
       </c>
@@ -1732,7 +1752,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" ht="13.55" customHeight="1">
+    <row r="27" ht="13.5" customHeight="1">
       <c r="A27" t="s" s="2">
         <v>51</v>
       </c>
@@ -1743,7 +1763,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" ht="13.55" customHeight="1">
+    <row r="28" ht="13.5" customHeight="1">
       <c r="A28" t="s" s="2">
         <v>53</v>
       </c>
@@ -1754,7 +1774,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" ht="13.55" customHeight="1">
+    <row r="29" ht="13.5" customHeight="1">
       <c r="A29" t="s" s="2">
         <v>54</v>
       </c>
@@ -1770,84 +1790,84 @@
         <v>56</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" ht="73" customHeight="1">
+    <row r="31" ht="73.05" customHeight="1">
       <c r="A31" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" ht="13.55" customHeight="1">
+    <row r="32" ht="13.5" customHeight="1">
       <c r="A32" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" ht="13.55" customHeight="1">
+    <row r="33" ht="13.5" customHeight="1">
       <c r="A33" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" ht="13.55" customHeight="1">
+    <row r="34" ht="13.5" customHeight="1">
       <c r="A34" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>63</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>62</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" ht="13.55" customHeight="1">
+    <row r="35" ht="13.5" customHeight="1">
       <c r="A35" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" ht="13.55" customHeight="1">
+    <row r="36" ht="13.5" customHeight="1">
       <c r="A36" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" ht="13.55" customHeight="1">
+    <row r="37" ht="13.5" customHeight="1">
       <c r="A37" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1855,58 +1875,80 @@
     </row>
     <row r="38" ht="65.55" customHeight="1">
       <c r="A38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" ht="13.55" customHeight="1">
+    <row r="39" ht="65.55" customHeight="1">
       <c r="A39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="B39" t="s" s="2">
         <v>73</v>
+      </c>
+      <c r="B39" t="s" s="4">
+        <v>74</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" ht="13.55" customHeight="1">
+    <row r="40" ht="13.5" customHeight="1">
       <c r="A40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" ht="13.55" customHeight="1">
+    <row r="41" ht="13.5" customHeight="1">
       <c r="A41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" ht="13.55" customHeight="1">
+    <row r="42" ht="13.5" customHeight="1">
       <c r="A42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
+    </row>
+    <row r="43" ht="13.5" customHeight="1">
+      <c r="A43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" ht="13.5" customHeight="1">
+      <c r="A44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s" s="4">
+        <v>84</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/conf/Text.csv.xlsx
+++ b/conf/Text.csv.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>место</t>
   </si>
@@ -35,10 +35,18 @@
     <t>Profile</t>
   </si>
   <si>
+    <t>➖➖➖➖➖➖➖➖➖➖➖
+👤 Информация о вас:
+🔑 Логин: @{vUserName}
+💳 ID: {vUserId}
+✅ Всего активировано ключей: {vPKeyCount}
+➖➖➖➖➖➖➖➖➖➖➖</t>
+  </si>
+  <si>
+    <t>Profile_Markup</t>
+  </si>
+  <si>
     <t>🏠  Профиль</t>
-  </si>
-  <si>
-    <t>Profile_Markup</t>
   </si>
   <si>
     <t>MyKeys</t>
@@ -68,7 +76,7 @@
     <t>Trouble_Markup</t>
   </si>
   <si>
-    <t xml:space="preserve">Ключ не работает </t>
+    <t>Ключ не работает</t>
   </si>
   <si>
     <t>Trouble_Input</t>
@@ -1503,7 +1511,7 @@
       <c r="A4" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" t="s" s="4">
         <v>7</v>
       </c>
       <c r="C4" s="3"/>
@@ -1515,7 +1523,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1523,10 +1531,10 @@
     </row>
     <row r="6" ht="13.5" customHeight="1">
       <c r="A6" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1534,10 +1542,10 @@
     </row>
     <row r="7" ht="91.5" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1545,10 +1553,10 @@
     </row>
     <row r="8" ht="13.5" customHeight="1">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1556,10 +1564,10 @@
     </row>
     <row r="9" ht="13.5" customHeight="1">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1567,10 +1575,10 @@
     </row>
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1578,10 +1586,10 @@
     </row>
     <row r="11" ht="26.55" customHeight="1">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1589,10 +1597,10 @@
     </row>
     <row r="12" ht="26.55" customHeight="1">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1600,10 +1608,10 @@
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1611,10 +1619,10 @@
     </row>
     <row r="14" ht="13.5" customHeight="1">
       <c r="A14" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1622,10 +1630,10 @@
     </row>
     <row r="15" ht="26.55" customHeight="1">
       <c r="A15" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1633,10 +1641,10 @@
     </row>
     <row r="16" ht="13.5" customHeight="1">
       <c r="A16" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1644,10 +1652,10 @@
     </row>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1655,10 +1663,10 @@
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1666,10 +1674,10 @@
     </row>
     <row r="19" ht="13.5" customHeight="1">
       <c r="A19" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1677,10 +1685,10 @@
     </row>
     <row r="20" ht="13.5" customHeight="1">
       <c r="A20" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1688,10 +1696,10 @@
     </row>
     <row r="21" ht="26.55" customHeight="1">
       <c r="A21" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1699,10 +1707,10 @@
     </row>
     <row r="22" ht="26.55" customHeight="1">
       <c r="A22" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1710,10 +1718,10 @@
     </row>
     <row r="23" ht="13.5" customHeight="1">
       <c r="A23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1721,10 +1729,10 @@
     </row>
     <row r="24" ht="13.5" customHeight="1">
       <c r="A24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1732,10 +1740,10 @@
     </row>
     <row r="25" ht="13.5" customHeight="1">
       <c r="A25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1743,10 +1751,10 @@
     </row>
     <row r="26" ht="26.55" customHeight="1">
       <c r="A26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1754,10 +1762,10 @@
     </row>
     <row r="27" ht="13.5" customHeight="1">
       <c r="A27" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1765,10 +1773,10 @@
     </row>
     <row r="28" ht="13.5" customHeight="1">
       <c r="A28" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1776,10 +1784,10 @@
     </row>
     <row r="29" ht="13.5" customHeight="1">
       <c r="A29" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1787,10 +1795,10 @@
     </row>
     <row r="30" ht="26.55" customHeight="1">
       <c r="A30" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1798,10 +1806,10 @@
     </row>
     <row r="31" ht="73.05" customHeight="1">
       <c r="A31" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1809,10 +1817,10 @@
     </row>
     <row r="32" ht="13.5" customHeight="1">
       <c r="A32" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1820,10 +1828,10 @@
     </row>
     <row r="33" ht="13.5" customHeight="1">
       <c r="A33" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1831,10 +1839,10 @@
     </row>
     <row r="34" ht="13.5" customHeight="1">
       <c r="A34" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>64</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>63</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1842,10 +1850,10 @@
     </row>
     <row r="35" ht="13.5" customHeight="1">
       <c r="A35" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1853,10 +1861,10 @@
     </row>
     <row r="36" ht="13.5" customHeight="1">
       <c r="A36" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1864,10 +1872,10 @@
     </row>
     <row r="37" ht="13.5" customHeight="1">
       <c r="A37" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1875,10 +1883,10 @@
     </row>
     <row r="38" ht="65.55" customHeight="1">
       <c r="A38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1886,10 +1894,10 @@
     </row>
     <row r="39" ht="65.55" customHeight="1">
       <c r="A39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1897,10 +1905,10 @@
     </row>
     <row r="40" ht="13.5" customHeight="1">
       <c r="A40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1908,10 +1916,10 @@
     </row>
     <row r="41" ht="13.5" customHeight="1">
       <c r="A41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1919,10 +1927,10 @@
     </row>
     <row r="42" ht="13.5" customHeight="1">
       <c r="A42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -1930,10 +1938,10 @@
     </row>
     <row r="43" ht="13.5" customHeight="1">
       <c r="A43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -1941,10 +1949,10 @@
     </row>
     <row r="44" ht="13.5" customHeight="1">
       <c r="A44" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>

--- a/conf/Text.csv.xlsx
+++ b/conf/Text.csv.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>место</t>
   </si>
@@ -52,25 +52,46 @@
     <t>MyKeys</t>
   </si>
   <si>
-    <t>Ключи:</t>
-  </si>
-  <si>
-    <t>MyKeys_Iter</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - порядковый номер: {Order};
- &gt; ключ: {PKey};
- &gt; OutlineUrl: {AUrl};
- &gt; время активации: {TimeStart};
- &gt; время завершения: {TimeUntil};
- &gt; осталось дней: {TimeDelta.days};
- &gt; всего дней: {TimeLimit.days};</t>
+    <t>У вас {PKeyCount} ключей</t>
   </si>
   <si>
     <t>MyKeys_Markup</t>
   </si>
   <si>
     <t>Мои ключи</t>
+  </si>
+  <si>
+    <t>MyKeys_Input_Success</t>
+  </si>
+  <si>
+    <t>🔹Ключ № {Order}
+🔹Ключ для переустановки VPN: ```{PKey}```
+🔹Конфигурация для Outline: ```{AUrl}```
+🔹Текущий VPN работает до {DateUntil}</t>
+  </si>
+  <si>
+    <t>MyKeys_Input_Failure</t>
+  </si>
+  <si>
+    <t>Не верный ввод. Используйте кнопки ниже для ввода</t>
+  </si>
+  <si>
+    <t>MyKeys_Page</t>
+  </si>
+  <si>
+    <t>Текущая страница: {PageOrder}</t>
+  </si>
+  <si>
+    <t>MyKeys_Page_Prev_Markup</t>
+  </si>
+  <si>
+    <t>Пред. страница</t>
+  </si>
+  <si>
+    <t>MyKeys_Page_Next_Markup</t>
+  </si>
+  <si>
+    <t>След. страница</t>
   </si>
   <si>
     <t>Trouble_Markup</t>
@@ -139,7 +160,9 @@
     <t>Admin_Create_Input</t>
   </si>
   <si>
-    <t>Введите количество (только цифры без разделительных символов) ключей и срок действия (сколько дней ключи будут действительны после активации)</t>
+    <t>Введите
+- количество (только цифры без разделительных символов) ключей
+- срок действия (сколько дней ключи будут действительны после активации)</t>
   </si>
   <si>
     <t>Admin_Create_Success</t>
@@ -1462,13 +1485,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.1719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.2891" style="1" customWidth="1"/>
     <col min="2" max="2" width="87.6719" style="1" customWidth="1"/>
     <col min="3" max="5" width="8.85156" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.85156" style="1" customWidth="1"/>
@@ -1485,7 +1508,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="13.5" customHeight="1">
+    <row r="2" ht="34" customHeight="1">
       <c r="A2" t="s" s="2">
         <v>2</v>
       </c>
@@ -1507,7 +1530,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="13.5" customHeight="1">
+    <row r="4" ht="133.7" customHeight="1">
       <c r="A4" t="s" s="2">
         <v>6</v>
       </c>
@@ -1518,7 +1541,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="13.5" customHeight="1">
+    <row r="5" ht="25.55" customHeight="1">
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
@@ -1540,66 +1563,66 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="91.5" customHeight="1">
+    <row r="7" ht="13.5" customHeight="1">
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" t="s" s="4">
+      <c r="B7" t="s" s="2">
         <v>13</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="13.5" customHeight="1">
+    <row r="8" ht="121.25" customHeight="1">
       <c r="A8" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" t="s" s="4">
         <v>15</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="13.5" customHeight="1">
+    <row r="9" ht="13.55" customHeight="1">
       <c r="A9" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="4">
         <v>17</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="13.5" customHeight="1">
+    <row r="10" ht="13.55" customHeight="1">
       <c r="A10" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="4">
         <v>19</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" ht="26.55" customHeight="1">
+    <row r="11" ht="13.5" customHeight="1">
       <c r="A11" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B11" t="s" s="4">
+      <c r="B11" t="s" s="2">
         <v>21</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="26.55" customHeight="1">
+    <row r="12" ht="13.5" customHeight="1">
       <c r="A12" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B12" t="s" s="4">
+      <c r="B12" t="s" s="2">
         <v>23</v>
       </c>
       <c r="C12" s="3"/>
@@ -1639,11 +1662,11 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" ht="13.5" customHeight="1">
+    <row r="16" ht="26.55" customHeight="1">
       <c r="A16" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>31</v>
       </c>
       <c r="C16" s="3"/>
@@ -1672,11 +1695,11 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" ht="13.5" customHeight="1">
+    <row r="19" ht="26.55" customHeight="1">
       <c r="A19" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>37</v>
       </c>
       <c r="C19" s="3"/>
@@ -1694,33 +1717,33 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" ht="26.55" customHeight="1">
+    <row r="21" ht="13.5" customHeight="1">
       <c r="A21" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="B21" t="s" s="4">
+      <c r="B21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" ht="26.55" customHeight="1">
+    <row r="22" ht="13.5" customHeight="1">
       <c r="A22" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="B22" t="s" s="4">
+      <c r="B22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" ht="13.5" customHeight="1">
+    <row r="23" ht="39.55" customHeight="1">
       <c r="A23" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>45</v>
       </c>
       <c r="C23" s="3"/>
@@ -1738,11 +1761,11 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" ht="13.5" customHeight="1">
+    <row r="25" ht="26.55" customHeight="1">
       <c r="A25" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>49</v>
       </c>
       <c r="C25" s="3"/>
@@ -1776,7 +1799,7 @@
         <v>54</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1784,10 +1807,10 @@
     </row>
     <row r="29" ht="13.5" customHeight="1">
       <c r="A29" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1795,21 +1818,21 @@
     </row>
     <row r="30" ht="26.55" customHeight="1">
       <c r="A30" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" ht="73.05" customHeight="1">
+    <row r="31" ht="13.5" customHeight="1">
       <c r="A31" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="B31" t="s" s="4">
         <v>60</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1817,10 +1840,10 @@
     </row>
     <row r="32" ht="13.5" customHeight="1">
       <c r="A32" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1837,23 +1860,23 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" ht="13.5" customHeight="1">
+    <row r="34" ht="26.55" customHeight="1">
       <c r="A34" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="B34" t="s" s="2">
-        <v>64</v>
+      <c r="B34" t="s" s="4">
+        <v>66</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" ht="13.5" customHeight="1">
+    <row r="35" ht="78.55" customHeight="1">
       <c r="A35" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="B35" t="s" s="2">
         <v>67</v>
+      </c>
+      <c r="B35" t="s" s="4">
+        <v>68</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1861,10 +1884,10 @@
     </row>
     <row r="36" ht="13.5" customHeight="1">
       <c r="A36" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1872,31 +1895,31 @@
     </row>
     <row r="37" ht="13.5" customHeight="1">
       <c r="A37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" ht="65.55" customHeight="1">
+    <row r="38" ht="13.5" customHeight="1">
       <c r="A38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="B38" t="s" s="4">
-        <v>73</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" ht="65.55" customHeight="1">
+    <row r="39" ht="23.9" customHeight="1">
       <c r="A39" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="B39" t="s" s="4">
+      <c r="B39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="C39" s="3"/>
@@ -1925,22 +1948,22 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" ht="13.5" customHeight="1">
+    <row r="42" ht="65.55" customHeight="1">
       <c r="A42" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>81</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" ht="13.5" customHeight="1">
+    <row r="43" ht="65.55" customHeight="1">
       <c r="A43" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>83</v>
       </c>
       <c r="C43" s="3"/>
@@ -1951,12 +1974,56 @@
       <c r="A44" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="B44" t="s" s="4">
+      <c r="B44" t="s" s="2">
         <v>85</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
+    </row>
+    <row r="45" ht="13.5" customHeight="1">
+      <c r="A45" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" ht="13.5" customHeight="1">
+      <c r="A46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" ht="13.5" customHeight="1">
+      <c r="A47" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" ht="34" customHeight="1">
+      <c r="A48" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="B48" t="s" s="4">
+        <v>93</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/conf/Text.csv.xlsx
+++ b/conf/Text.csv.xlsx
@@ -73,7 +73,7 @@
     <t>MyKeys_Input_Failure</t>
   </si>
   <si>
-    <t>Не верный ввод. Используйте кнопки ниже для ввода</t>
+    <t>Не верный ввод. Используй кнопки ниже для ввода</t>
   </si>
   <si>
     <t>MyKeys_Page</t>
@@ -103,14 +103,14 @@
     <t>Trouble_Input</t>
   </si>
   <si>
-    <t>Введите не работающий ключ</t>
+    <t>Введи не работающий ключ</t>
   </si>
   <si>
     <t>Trouble_Success</t>
   </si>
   <si>
-    <t>Ваш ключ заменен на аналогичный: {PKey};
-Outline Url: {AUrl};</t>
+    <t>Ключ заменен на аналогичный: ```{PKey}```
+Outline Url: ```{AUrl}```</t>
   </si>
   <si>
     <t>Trouble_Failure</t>
@@ -135,8 +135,8 @@
     <t>Activate_Success</t>
   </si>
   <si>
-    <t>Активирован ключ: {PKey};
-OutlineUrl для доступа к VPN: {AUrl};</t>
+    <t>Активирован ключ: ```{PKey}```
+OutlineUrl для доступа к VPN: ```{AUrl}```</t>
   </si>
   <si>
     <t>Activate_Failure</t>
@@ -175,7 +175,7 @@
   </si>
   <si>
     <t xml:space="preserve">
- - {Iter}: {PKey}</t>
+ - {Iter}: ```{PKey}```</t>
   </si>
   <si>
     <t>Admin_Create_Failure</t>
@@ -200,7 +200,7 @@
     <t>Admin_Delete_Success</t>
   </si>
   <si>
-    <t>Удален ключ: {PKey}</t>
+    <t>Удален ключ: ```{PKey}```</t>
   </si>
   <si>
     <t>Admin_Delete_Failure</t>
@@ -222,7 +222,7 @@
     <t>Admin_Payoff_Success</t>
   </si>
   <si>
-    <t>Введенный вами ключ удален, новый ключ: {PKey}</t>
+    <t>Введенный вами ключ удален, новый ключ: ```{PKey}```</t>
   </si>
   <si>
     <t>Admin_Payoff_Failure</t>
@@ -245,7 +245,7 @@
     <t>Admin_Help_Markup</t>
   </si>
   <si>
-    <t>помощь админу</t>
+    <t>Помощь админу</t>
   </si>
   <si>
     <t>Help_Markup</t>
@@ -1491,7 +1491,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="23.2891" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.3516" style="1" customWidth="1"/>
     <col min="2" max="2" width="87.6719" style="1" customWidth="1"/>
     <col min="3" max="5" width="8.85156" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.85156" style="1" customWidth="1"/>

--- a/conf/Text.csv.xlsx
+++ b/conf/Text.csv.xlsx
@@ -5,13 +5,16 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
+  <si>
+    <t>Text</t>
+  </si>
   <si>
     <t>место</t>
   </si>
@@ -97,7 +100,7 @@
     <t>Trouble_Markup</t>
   </si>
   <si>
-    <t>Ключ не работает</t>
+    <t xml:space="preserve">❌ Ключ не работает </t>
   </si>
   <si>
     <t>Trouble_Input</t>
@@ -123,7 +126,7 @@
     <t>Activate_Markup</t>
   </si>
   <si>
-    <t>Активировать ключ</t>
+    <t>✍️ Активировать ключ</t>
   </si>
   <si>
     <t>Activate_Input</t>
@@ -266,7 +269,8 @@
     <t>Support</t>
   </si>
   <si>
-    <t>Для контакта с поддержкой…</t>
+    <t>Техническая поддержка: @kotsupport 
+Время работы: 10:00 - 22:00</t>
   </si>
   <si>
     <t>Info_Markup</t>
@@ -288,25 +292,25 @@
     <t>Cancel_Prompt</t>
   </si>
   <si>
-    <t>Введите “Отмена”, или команду “/cancel”, или команду “/start”, чтобы перейти на главную</t>
+    <t>Нажмите на кнопку “⛔️ Отмена ⛔️” ниже, или введите команды “/cancel” или “/start”, чтобы перейти на главную</t>
   </si>
   <si>
     <t>Cancel_Markup</t>
   </si>
   <si>
-    <t>Отмена</t>
+    <t>⛔️ Отмена ⛔️</t>
   </si>
   <si>
     <t>Cancel</t>
   </si>
   <si>
-    <t>Ввод отменен</t>
+    <t>Ввод отменен, возвращаемся в главное меню…</t>
   </si>
   <si>
     <t>Return_Prompt</t>
   </si>
   <si>
-    <t>Введите “Вернуться”, или команду “/return”, или команду “/start”, чтобы перейти на главную</t>
+    <t>Нажмите на кнопку “Вернуться” ниже, или введите команды “/return” или “/start”, чтобы перейти на главную</t>
   </si>
   <si>
     <t>Return_Markup</t>
@@ -331,9 +335,9 @@
   </numFmts>
   <fonts count="3">
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="12"/>
@@ -341,12 +345,13 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="15"/>
+      <b val="1"/>
+      <sz val="10"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,13 +364,109 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -386,24 +487,48 @@
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,17 +547,19 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
-    <a:clrScheme name="Office Theme">
+    <a:clrScheme name="Blank">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
@@ -440,28 +567,28 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="A7A7A7"/>
+        <a:srgbClr val="5E5E5E"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="535353"/>
+        <a:srgbClr val="D5D5D5"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="00A2FF"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="16E7CF"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="61D836"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFD932"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="FF644E"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="FF42A1"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -470,7 +597,7 @@
         <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office Theme">
+    <a:fontScheme name="Blank">
       <a:majorFont>
         <a:latin typeface="Helvetica Neue"/>
         <a:ea typeface="Helvetica Neue"/>
@@ -482,7 +609,7 @@
         <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office Theme">
+    <a:fmtScheme name="Blank">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -555,31 +682,13 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -638,55 +747,46 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="000000"/>
         </a:solidFill>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Helvetica Neue Medium"/>
+            <a:ea typeface="Helvetica Neue Medium"/>
+            <a:cs typeface="Helvetica Neue Medium"/>
+            <a:sym typeface="Helvetica Neue Medium"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -925,20 +1025,14 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="25400" cap="flat">
+        <a:ln w="12700" cap="flat">
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:round/>
+          <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1213,11 +1307,11 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1485,548 +1579,563 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E48"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="23.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="87.6719" style="1" customWidth="1"/>
-    <col min="3" max="5" width="8.85156" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1719" style="1" customWidth="1"/>
+    <col min="2" max="2" width="90.5" style="1" customWidth="1"/>
+    <col min="3" max="5" width="8.35156" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.35156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1">
+    <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" ht="34" customHeight="1">
-      <c r="A2" t="s" s="2">
+      <c r="B2" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" ht="37.55" customHeight="1">
+      <c r="A3" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" t="s" s="2">
+      <c r="B3" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" t="s" s="9">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" ht="133.7" customHeight="1">
-      <c r="A4" t="s" s="2">
+      <c r="B4" t="s" s="10">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="4">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" ht="123.45" customHeight="1">
+      <c r="A5" t="s" s="9">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" ht="25.55" customHeight="1">
-      <c r="A5" t="s" s="2">
+      <c r="B5" t="s" s="12">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" t="s" s="9">
         <v>9</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" t="s" s="2">
+      <c r="B6" t="s" s="10">
         <v>10</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" t="s" s="9">
         <v>11</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" t="s" s="2">
+      <c r="B7" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" t="s" s="9">
         <v>13</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" ht="121.25" customHeight="1">
-      <c r="A8" t="s" s="2">
+      <c r="B8" t="s" s="10">
         <v>14</v>
       </c>
-      <c r="B8" t="s" s="4">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" ht="113.15" customHeight="1">
+      <c r="A9" t="s" s="9">
         <v>15</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" t="s" s="2">
+      <c r="B9" t="s" s="12">
         <v>16</v>
       </c>
-      <c r="B9" t="s" s="4">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" t="s" s="2">
+      <c r="B10" t="s" s="10">
         <v>18</v>
       </c>
-      <c r="B10" t="s" s="4">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" t="s" s="9">
         <v>19</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" t="s" s="2">
+      <c r="B11" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" t="s" s="9">
         <v>21</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" t="s" s="2">
+      <c r="B12" t="s" s="10">
         <v>22</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" t="s" s="9">
         <v>23</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" t="s" s="2">
+      <c r="B13" t="s" s="10">
         <v>24</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" t="s" s="9">
         <v>25</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" t="s" s="2">
+      <c r="B14" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" ht="26.55" customHeight="1">
-      <c r="A15" t="s" s="2">
+      <c r="B15" t="s" s="10">
         <v>28</v>
       </c>
-      <c r="B15" t="s" s="4">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" ht="32.05" customHeight="1">
+      <c r="A16" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" ht="26.55" customHeight="1">
-      <c r="A16" t="s" s="2">
+      <c r="B16" t="s" s="12">
         <v>30</v>
       </c>
-      <c r="B16" t="s" s="4">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" ht="32.05" customHeight="1">
+      <c r="A17" t="s" s="9">
         <v>31</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" t="s" s="2">
+      <c r="B17" t="s" s="12">
         <v>32</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" t="s" s="9">
         <v>33</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" t="s" s="2">
+      <c r="B18" t="s" s="10">
         <v>34</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" t="s" s="9">
         <v>35</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" ht="26.55" customHeight="1">
-      <c r="A19" t="s" s="2">
+      <c r="B19" t="s" s="10">
         <v>36</v>
       </c>
-      <c r="B19" t="s" s="4">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" ht="32.05" customHeight="1">
+      <c r="A20" t="s" s="9">
         <v>37</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" ht="13.5" customHeight="1">
-      <c r="A20" t="s" s="2">
+      <c r="B20" t="s" s="12">
         <v>38</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" t="s" s="9">
         <v>39</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" ht="13.5" customHeight="1">
-      <c r="A21" t="s" s="2">
+      <c r="B21" t="s" s="10">
         <v>40</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" t="s" s="9">
         <v>41</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" ht="13.5" customHeight="1">
-      <c r="A22" t="s" s="2">
+      <c r="B22" t="s" s="10">
         <v>42</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" t="s" s="9">
         <v>43</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" ht="39.55" customHeight="1">
-      <c r="A23" t="s" s="2">
+      <c r="B23" t="s" s="10">
         <v>44</v>
       </c>
-      <c r="B23" t="s" s="4">
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" ht="44.05" customHeight="1">
+      <c r="A24" t="s" s="9">
         <v>45</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" ht="13.5" customHeight="1">
-      <c r="A24" t="s" s="2">
+      <c r="B24" t="s" s="12">
         <v>46</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" t="s" s="9">
         <v>47</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" ht="26.55" customHeight="1">
-      <c r="A25" t="s" s="2">
+      <c r="B25" t="s" s="10">
         <v>48</v>
       </c>
-      <c r="B25" t="s" s="4">
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" ht="32.05" customHeight="1">
+      <c r="A26" t="s" s="9">
         <v>49</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" ht="26.55" customHeight="1">
-      <c r="A26" t="s" s="2">
+      <c r="B26" t="s" s="12">
         <v>50</v>
       </c>
-      <c r="B26" t="s" s="4">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" ht="32.05" customHeight="1">
+      <c r="A27" t="s" s="9">
         <v>51</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" ht="13.5" customHeight="1">
-      <c r="A27" t="s" s="2">
+      <c r="B27" t="s" s="12">
         <v>52</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" t="s" s="9">
         <v>53</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" ht="13.5" customHeight="1">
-      <c r="A28" t="s" s="2">
+      <c r="B28" t="s" s="10">
         <v>54</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" t="s" s="9">
         <v>55</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" ht="13.5" customHeight="1">
-      <c r="A29" t="s" s="2">
+      <c r="B29" t="s" s="10">
         <v>56</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" t="s" s="9">
         <v>57</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" ht="26.55" customHeight="1">
-      <c r="A30" t="s" s="2">
+      <c r="B30" t="s" s="10">
         <v>58</v>
       </c>
-      <c r="B30" t="s" s="4">
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" ht="32.05" customHeight="1">
+      <c r="A31" t="s" s="9">
         <v>59</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" ht="13.5" customHeight="1">
-      <c r="A31" t="s" s="2">
+      <c r="B31" t="s" s="12">
         <v>60</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" t="s" s="9">
         <v>61</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" ht="13.5" customHeight="1">
-      <c r="A32" t="s" s="2">
+      <c r="B32" t="s" s="10">
         <v>62</v>
       </c>
-      <c r="B32" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" ht="13.5" customHeight="1">
-      <c r="A33" t="s" s="2">
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" t="s" s="9">
         <v>63</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" t="s" s="9">
         <v>64</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" ht="26.55" customHeight="1">
-      <c r="A34" t="s" s="2">
+      <c r="B34" t="s" s="10">
         <v>65</v>
       </c>
-      <c r="B34" t="s" s="4">
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" ht="32.05" customHeight="1">
+      <c r="A35" t="s" s="9">
         <v>66</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" ht="78.55" customHeight="1">
-      <c r="A35" t="s" s="2">
+      <c r="B35" t="s" s="12">
         <v>67</v>
       </c>
-      <c r="B35" t="s" s="4">
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" ht="68.05" customHeight="1">
+      <c r="A36" t="s" s="9">
         <v>68</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" ht="13.5" customHeight="1">
-      <c r="A36" t="s" s="2">
+      <c r="B36" t="s" s="12">
         <v>69</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" t="s" s="9">
         <v>70</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" ht="13.5" customHeight="1">
-      <c r="A37" t="s" s="2">
+      <c r="B37" t="s" s="10">
         <v>71</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="A38" t="s" s="9">
         <v>72</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" ht="13.5" customHeight="1">
-      <c r="A38" t="s" s="2">
+      <c r="B38" t="s" s="10">
         <v>73</v>
       </c>
-      <c r="B38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" ht="23.9" customHeight="1">
-      <c r="A39" t="s" s="2">
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" ht="20.05" customHeight="1">
+      <c r="A39" t="s" s="9">
         <v>74</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="10">
+        <v>73</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" ht="20.05" customHeight="1">
+      <c r="A40" t="s" s="9">
         <v>75</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" ht="13.5" customHeight="1">
-      <c r="A40" t="s" s="2">
+      <c r="B40" t="s" s="10">
         <v>76</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" ht="32.05" customHeight="1">
+      <c r="A41" t="s" s="9">
         <v>77</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" ht="13.5" customHeight="1">
-      <c r="A41" t="s" s="2">
+      <c r="B41" t="s" s="12">
         <v>78</v>
       </c>
-      <c r="B41" t="s" s="2">
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" ht="20.05" customHeight="1">
+      <c r="A42" t="s" s="9">
         <v>79</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" ht="65.55" customHeight="1">
-      <c r="A42" t="s" s="2">
+      <c r="B42" t="s" s="10">
         <v>80</v>
       </c>
-      <c r="B42" t="s" s="4">
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" ht="68.05" customHeight="1">
+      <c r="A43" t="s" s="9">
         <v>81</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" ht="65.55" customHeight="1">
-      <c r="A43" t="s" s="2">
+      <c r="B43" t="s" s="12">
         <v>82</v>
       </c>
-      <c r="B43" t="s" s="4">
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" ht="20.05" customHeight="1">
+      <c r="A44" t="s" s="9">
         <v>83</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" ht="13.5" customHeight="1">
-      <c r="A44" t="s" s="2">
+      <c r="B44" t="s" s="10">
         <v>84</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+    </row>
+    <row r="45" ht="20.05" customHeight="1">
+      <c r="A45" t="s" s="9">
         <v>85</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" ht="13.5" customHeight="1">
-      <c r="A45" t="s" s="2">
+      <c r="B45" t="s" s="10">
         <v>86</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" ht="20.05" customHeight="1">
+      <c r="A46" t="s" s="9">
         <v>87</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" ht="13.5" customHeight="1">
-      <c r="A46" t="s" s="2">
+      <c r="B46" t="s" s="10">
         <v>88</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" ht="20.05" customHeight="1">
+      <c r="A47" t="s" s="9">
         <v>89</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" ht="13.5" customHeight="1">
-      <c r="A47" t="s" s="2">
+      <c r="B47" t="s" s="10">
         <v>90</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" ht="20.05" customHeight="1">
+      <c r="A48" t="s" s="9">
         <v>91</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" ht="34" customHeight="1">
-      <c r="A48" t="s" s="2">
+      <c r="B48" t="s" s="10">
         <v>92</v>
       </c>
-      <c r="B48" t="s" s="4">
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" ht="37.35" customHeight="1">
+      <c r="A49" t="s" s="9">
         <v>93</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
+      <c r="B49" t="s" s="12">
+        <v>94</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>

--- a/conf/Text.csv.xlsx
+++ b/conf/Text.csv.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>Text</t>
   </si>
@@ -68,8 +68,8 @@
   </si>
   <si>
     <t>🔹Ключ № {Order}
-🔹Ключ для переустановки VPN: ```{PKey}```
-🔹Конфигурация для Outline: ```{AUrl}```
+🔹Ключ для переустановки VPN: &lt;code&gt;{PKey}&lt;/code&gt;
+🔹Конфигурация для Outline: &lt;code&gt;{AUrl}&lt;/code&gt;
 🔹Текущий VPN работает до {DateUntil}</t>
   </si>
   <si>
@@ -112,8 +112,8 @@
     <t>Trouble_Success</t>
   </si>
   <si>
-    <t>Ключ заменен на аналогичный: ```{PKey}```
-Outline Url: ```{AUrl}```</t>
+    <t>Ключ заменен на аналогичный: &lt;code&gt;{PKey}&lt;/code&gt;
+Outline конфиг: &lt;code&gt;{AUrl}&lt;/code&gt;</t>
   </si>
   <si>
     <t>Trouble_Failure</t>
@@ -138,8 +138,8 @@
     <t>Activate_Success</t>
   </si>
   <si>
-    <t>Активирован ключ: ```{PKey}```
-OutlineUrl для доступа к VPN: ```{AUrl}```</t>
+    <t>Активирован ключ: &lt;code&gt;{PKey}&lt;/code&gt;
+OutlineUrl для доступа к VPN: &lt;code&gt;{AUrl}&lt;/code&gt;</t>
   </si>
   <si>
     <t>Activate_Failure</t>
@@ -178,7 +178,7 @@
   </si>
   <si>
     <t xml:space="preserve">
- - {Iter}: ```{PKey}```</t>
+ - {Iter}: &lt;code&gt;{PKey}&lt;/code&gt;</t>
   </si>
   <si>
     <t>Admin_Create_Failure</t>
@@ -203,7 +203,7 @@
     <t>Admin_Delete_Success</t>
   </si>
   <si>
-    <t>Удален ключ: ```{PKey}```</t>
+    <t>Удален ключ: &lt;code&gt;{PKey}&lt;/code&gt;</t>
   </si>
   <si>
     <t>Admin_Delete_Failure</t>
@@ -225,7 +225,7 @@
     <t>Admin_Payoff_Success</t>
   </si>
   <si>
-    <t>Введенный вами ключ удален, новый ключ: ```{PKey}```</t>
+    <t>Введенный вами ключ удален, новый ключ: &lt;code&gt;{PKey}&lt;/code&gt;</t>
   </si>
   <si>
     <t>Admin_Payoff_Failure</t>
@@ -254,10 +254,13 @@
     <t>Help_Markup</t>
   </si>
   <si>
+    <t>📝 Помощь</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
     <t>Помощь</t>
-  </si>
-  <si>
-    <t>Help</t>
   </si>
   <si>
     <t>Support_Markup</t>
@@ -333,7 +336,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -345,13 +348,18 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,8 +378,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -383,6 +397,28 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -396,7 +432,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -405,7 +441,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -414,43 +450,28 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,28 +480,58 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,44 +541,47 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -547,8 +601,10 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
@@ -567,10 +623,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -747,11 +803,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -760,33 +819,33 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1025,12 +1084,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1311,7 +1370,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1582,11 +1641,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E49"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="24.1719" style="1" customWidth="1"/>
     <col min="2" max="2" width="90.5" style="1" customWidth="1"/>
@@ -1594,542 +1653,542 @@
     <col min="6" max="16384" width="8.35156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
+    <row r="1" ht="27.6" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" ht="37.55" customHeight="1">
-      <c r="A3" t="s" s="5">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" ht="37.5" customHeight="1">
+      <c r="A3" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" t="s" s="8">
         <v>4</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="9">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" ht="20.1" customHeight="1">
+      <c r="A4" t="s" s="10">
         <v>5</v>
       </c>
-      <c r="B4" t="s" s="10">
+      <c r="B4" t="s" s="11">
         <v>6</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" ht="123.45" customHeight="1">
-      <c r="A5" t="s" s="9">
+      <c r="A5" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="13">
         <v>8</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="9">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" ht="20.1" customHeight="1">
+      <c r="A6" t="s" s="10">
         <v>9</v>
       </c>
-      <c r="B6" t="s" s="10">
+      <c r="B6" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="9">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" ht="20.1" customHeight="1">
+      <c r="A7" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="B7" t="s" s="10">
+      <c r="B7" t="s" s="11">
         <v>12</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="9">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" ht="20.1" customHeight="1">
+      <c r="A8" t="s" s="10">
         <v>13</v>
       </c>
-      <c r="B8" t="s" s="10">
+      <c r="B8" t="s" s="11">
         <v>14</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" ht="113.15" customHeight="1">
-      <c r="A9" t="s" s="9">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" ht="113.1" customHeight="1">
+      <c r="A9" t="s" s="10">
         <v>15</v>
       </c>
-      <c r="B9" t="s" s="12">
+      <c r="B9" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="9">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" ht="20.1" customHeight="1">
+      <c r="A10" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="B10" t="s" s="10">
+      <c r="B10" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="9">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" ht="20.1" customHeight="1">
+      <c r="A11" t="s" s="10">
         <v>19</v>
       </c>
-      <c r="B11" t="s" s="10">
+      <c r="B11" t="s" s="11">
         <v>20</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="9">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" ht="20.1" customHeight="1">
+      <c r="A12" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="B12" t="s" s="10">
+      <c r="B12" t="s" s="11">
         <v>22</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="9">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" ht="20.1" customHeight="1">
+      <c r="A13" t="s" s="10">
         <v>23</v>
       </c>
-      <c r="B13" t="s" s="10">
+      <c r="B13" t="s" s="11">
         <v>24</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="9">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" ht="20.1" customHeight="1">
+      <c r="A14" t="s" s="10">
         <v>25</v>
       </c>
-      <c r="B14" t="s" s="10">
+      <c r="B14" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="9">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" ht="20.1" customHeight="1">
+      <c r="A15" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="B15" t="s" s="10">
+      <c r="B15" t="s" s="11">
         <v>28</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" ht="32.05" customHeight="1">
-      <c r="A16" t="s" s="9">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" ht="32.1" customHeight="1">
+      <c r="A16" t="s" s="10">
         <v>29</v>
       </c>
-      <c r="B16" t="s" s="12">
+      <c r="B16" t="s" s="13">
         <v>30</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" ht="32.05" customHeight="1">
-      <c r="A17" t="s" s="9">
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" ht="32.1" customHeight="1">
+      <c r="A17" t="s" s="10">
         <v>31</v>
       </c>
-      <c r="B17" t="s" s="12">
+      <c r="B17" t="s" s="13">
         <v>32</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="9">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" ht="20.1" customHeight="1">
+      <c r="A18" t="s" s="10">
         <v>33</v>
       </c>
-      <c r="B18" t="s" s="10">
+      <c r="B18" t="s" s="11">
         <v>34</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="9">
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" ht="20.1" customHeight="1">
+      <c r="A19" t="s" s="10">
         <v>35</v>
       </c>
-      <c r="B19" t="s" s="10">
+      <c r="B19" t="s" s="11">
         <v>36</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" ht="32.05" customHeight="1">
-      <c r="A20" t="s" s="9">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" ht="32.1" customHeight="1">
+      <c r="A20" t="s" s="10">
         <v>37</v>
       </c>
-      <c r="B20" t="s" s="12">
+      <c r="B20" t="s" s="13">
         <v>38</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="9">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" ht="20.1" customHeight="1">
+      <c r="A21" t="s" s="10">
         <v>39</v>
       </c>
-      <c r="B21" t="s" s="10">
+      <c r="B21" t="s" s="11">
         <v>40</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="9">
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" ht="20.1" customHeight="1">
+      <c r="A22" t="s" s="10">
         <v>41</v>
       </c>
-      <c r="B22" t="s" s="10">
+      <c r="B22" t="s" s="11">
         <v>42</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="9">
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" ht="20.1" customHeight="1">
+      <c r="A23" t="s" s="10">
         <v>43</v>
       </c>
-      <c r="B23" t="s" s="10">
+      <c r="B23" t="s" s="11">
         <v>44</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" ht="44.05" customHeight="1">
-      <c r="A24" t="s" s="9">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" ht="44.1" customHeight="1">
+      <c r="A24" t="s" s="10">
         <v>45</v>
       </c>
-      <c r="B24" t="s" s="12">
+      <c r="B24" t="s" s="13">
         <v>46</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="9">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" ht="20.1" customHeight="1">
+      <c r="A25" t="s" s="10">
         <v>47</v>
       </c>
-      <c r="B25" t="s" s="10">
+      <c r="B25" t="s" s="11">
         <v>48</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" ht="32.05" customHeight="1">
-      <c r="A26" t="s" s="9">
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" ht="32.1" customHeight="1">
+      <c r="A26" t="s" s="10">
         <v>49</v>
       </c>
-      <c r="B26" t="s" s="12">
+      <c r="B26" t="s" s="13">
         <v>50</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" ht="32.05" customHeight="1">
-      <c r="A27" t="s" s="9">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" ht="32.1" customHeight="1">
+      <c r="A27" t="s" s="10">
         <v>51</v>
       </c>
-      <c r="B27" t="s" s="12">
+      <c r="B27" t="s" s="13">
         <v>52</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="9">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" ht="20.1" customHeight="1">
+      <c r="A28" t="s" s="10">
         <v>53</v>
       </c>
-      <c r="B28" t="s" s="10">
+      <c r="B28" t="s" s="11">
         <v>54</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="9">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" ht="20.1" customHeight="1">
+      <c r="A29" t="s" s="10">
         <v>55</v>
       </c>
-      <c r="B29" t="s" s="10">
+      <c r="B29" t="s" s="11">
         <v>56</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="9">
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" ht="20.1" customHeight="1">
+      <c r="A30" t="s" s="10">
         <v>57</v>
       </c>
-      <c r="B30" t="s" s="10">
+      <c r="B30" t="s" s="11">
         <v>58</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" ht="32.05" customHeight="1">
-      <c r="A31" t="s" s="9">
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" ht="32.1" customHeight="1">
+      <c r="A31" t="s" s="10">
         <v>59</v>
       </c>
-      <c r="B31" t="s" s="12">
+      <c r="B31" t="s" s="13">
         <v>60</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="9">
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" ht="20.1" customHeight="1">
+      <c r="A32" t="s" s="10">
         <v>61</v>
       </c>
-      <c r="B32" t="s" s="10">
+      <c r="B32" t="s" s="11">
         <v>62</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="9">
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" ht="20.1" customHeight="1">
+      <c r="A33" t="s" s="10">
         <v>63</v>
       </c>
-      <c r="B33" t="s" s="10">
+      <c r="B33" t="s" s="11">
         <v>56</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="9">
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" ht="20.1" customHeight="1">
+      <c r="A34" t="s" s="10">
         <v>64</v>
       </c>
-      <c r="B34" t="s" s="10">
+      <c r="B34" t="s" s="11">
         <v>65</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" ht="32.05" customHeight="1">
-      <c r="A35" t="s" s="9">
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" ht="32.1" customHeight="1">
+      <c r="A35" t="s" s="10">
         <v>66</v>
       </c>
-      <c r="B35" t="s" s="12">
+      <c r="B35" t="s" s="13">
         <v>67</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-    </row>
-    <row r="36" ht="68.05" customHeight="1">
-      <c r="A36" t="s" s="9">
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" ht="68.1" customHeight="1">
+      <c r="A36" t="s" s="10">
         <v>68</v>
       </c>
-      <c r="B36" t="s" s="12">
+      <c r="B36" t="s" s="13">
         <v>69</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-    </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="9">
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" ht="20.1" customHeight="1">
+      <c r="A37" t="s" s="10">
         <v>70</v>
       </c>
-      <c r="B37" t="s" s="10">
+      <c r="B37" t="s" s="11">
         <v>71</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-    </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="9">
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" ht="20.1" customHeight="1">
+      <c r="A38" t="s" s="10">
         <v>72</v>
       </c>
-      <c r="B38" t="s" s="10">
+      <c r="B38" t="s" s="11">
         <v>73</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="9">
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" ht="20.1" customHeight="1">
+      <c r="A39" t="s" s="10">
         <v>74</v>
       </c>
-      <c r="B39" t="s" s="10">
-        <v>73</v>
-      </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-    </row>
-    <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" t="s" s="9">
+      <c r="B39" t="s" s="11">
         <v>75</v>
       </c>
-      <c r="B40" t="s" s="10">
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" ht="20.1" customHeight="1">
+      <c r="A40" t="s" s="10">
         <v>76</v>
       </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" ht="32.05" customHeight="1">
-      <c r="A41" t="s" s="9">
+      <c r="B40" t="s" s="11">
         <v>77</v>
       </c>
-      <c r="B41" t="s" s="12">
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" ht="32.1" customHeight="1">
+      <c r="A41" t="s" s="10">
         <v>78</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-    </row>
-    <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" t="s" s="9">
+      <c r="B41" t="s" s="13">
         <v>79</v>
       </c>
-      <c r="B42" t="s" s="10">
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" ht="20.1" customHeight="1">
+      <c r="A42" t="s" s="10">
         <v>80</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-    </row>
-    <row r="43" ht="68.05" customHeight="1">
-      <c r="A43" t="s" s="9">
+      <c r="B42" t="s" s="11">
         <v>81</v>
       </c>
-      <c r="B43" t="s" s="12">
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" ht="68.1" customHeight="1">
+      <c r="A43" t="s" s="10">
         <v>82</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-    </row>
-    <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" t="s" s="9">
+      <c r="B43" t="s" s="13">
         <v>83</v>
       </c>
-      <c r="B44" t="s" s="10">
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" ht="20.1" customHeight="1">
+      <c r="A44" t="s" s="10">
         <v>84</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-    </row>
-    <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" t="s" s="9">
+      <c r="B44" t="s" s="11">
         <v>85</v>
       </c>
-      <c r="B45" t="s" s="10">
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" ht="20.1" customHeight="1">
+      <c r="A45" t="s" s="10">
         <v>86</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-    </row>
-    <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" t="s" s="9">
+      <c r="B45" t="s" s="11">
         <v>87</v>
       </c>
-      <c r="B46" t="s" s="10">
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" ht="20.1" customHeight="1">
+      <c r="A46" t="s" s="10">
         <v>88</v>
       </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-    </row>
-    <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" t="s" s="9">
+      <c r="B46" t="s" s="11">
         <v>89</v>
       </c>
-      <c r="B47" t="s" s="10">
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+    </row>
+    <row r="47" ht="20.1" customHeight="1">
+      <c r="A47" t="s" s="10">
         <v>90</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-    </row>
-    <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" t="s" s="9">
+      <c r="B47" t="s" s="11">
         <v>91</v>
       </c>
-      <c r="B48" t="s" s="10">
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" ht="20.1" customHeight="1">
+      <c r="A48" t="s" s="10">
         <v>92</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
+      <c r="B48" t="s" s="11">
+        <v>93</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
     </row>
     <row r="49" ht="37.35" customHeight="1">
-      <c r="A49" t="s" s="9">
-        <v>93</v>
-      </c>
-      <c r="B49" t="s" s="12">
+      <c r="A49" t="s" s="10">
         <v>94</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
+      <c r="B49" t="s" s="13">
+        <v>95</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/conf/Text.csv.xlsx
+++ b/conf/Text.csv.xlsx
@@ -100,7 +100,7 @@
     <t>Trouble_Markup</t>
   </si>
   <si>
-    <t xml:space="preserve">❌ Ключ не работает </t>
+    <t>❌ Ключ не работает</t>
   </si>
   <si>
     <t>Trouble_Input</t>

--- a/conf/Text.csv.xlsx
+++ b/conf/Text.csv.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>Text</t>
   </si>
@@ -62,6 +62,13 @@
   </si>
   <si>
     <t>Мои ключи</t>
+  </si>
+  <si>
+    <t>MyKeys_BrokenKey</t>
+  </si>
+  <si>
+    <t>Утерянный Outline конфиг!
+Обновите ключ при помощи команды /trouble</t>
   </si>
   <si>
     <t>MyKeys_Input_Success</t>
@@ -1641,7 +1648,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1739,7 +1746,7 @@
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" ht="113.1" customHeight="1">
+    <row r="9" ht="21.7" customHeight="1">
       <c r="A9" t="s" s="10">
         <v>15</v>
       </c>
@@ -1750,11 +1757,11 @@
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" ht="20.1" customHeight="1">
+    <row r="10" ht="113.1" customHeight="1">
       <c r="A10" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="B10" t="s" s="11">
+      <c r="B10" t="s" s="13">
         <v>18</v>
       </c>
       <c r="C10" s="12"/>
@@ -1816,11 +1823,11 @@
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" ht="32.1" customHeight="1">
+    <row r="16" ht="20.1" customHeight="1">
       <c r="A16" t="s" s="10">
         <v>29</v>
       </c>
-      <c r="B16" t="s" s="13">
+      <c r="B16" t="s" s="11">
         <v>30</v>
       </c>
       <c r="C16" s="12"/>
@@ -1838,11 +1845,11 @@
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
     </row>
-    <row r="18" ht="20.1" customHeight="1">
+    <row r="18" ht="32.1" customHeight="1">
       <c r="A18" t="s" s="10">
         <v>33</v>
       </c>
-      <c r="B18" t="s" s="11">
+      <c r="B18" t="s" s="13">
         <v>34</v>
       </c>
       <c r="C18" s="12"/>
@@ -1860,22 +1867,22 @@
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
     </row>
-    <row r="20" ht="32.1" customHeight="1">
+    <row r="20" ht="20.1" customHeight="1">
       <c r="A20" t="s" s="10">
         <v>37</v>
       </c>
-      <c r="B20" t="s" s="13">
+      <c r="B20" t="s" s="11">
         <v>38</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" ht="20.1" customHeight="1">
+    <row r="21" ht="32.1" customHeight="1">
       <c r="A21" t="s" s="10">
         <v>39</v>
       </c>
-      <c r="B21" t="s" s="11">
+      <c r="B21" t="s" s="13">
         <v>40</v>
       </c>
       <c r="C21" s="12"/>
@@ -1904,33 +1911,33 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" ht="44.1" customHeight="1">
+    <row r="24" ht="20.1" customHeight="1">
       <c r="A24" t="s" s="10">
         <v>45</v>
       </c>
-      <c r="B24" t="s" s="13">
+      <c r="B24" t="s" s="11">
         <v>46</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" ht="20.1" customHeight="1">
+    <row r="25" ht="44.1" customHeight="1">
       <c r="A25" t="s" s="10">
         <v>47</v>
       </c>
-      <c r="B25" t="s" s="11">
+      <c r="B25" t="s" s="13">
         <v>48</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
     </row>
-    <row r="26" ht="32.1" customHeight="1">
+    <row r="26" ht="20.1" customHeight="1">
       <c r="A26" t="s" s="10">
         <v>49</v>
       </c>
-      <c r="B26" t="s" s="13">
+      <c r="B26" t="s" s="11">
         <v>50</v>
       </c>
       <c r="C26" s="12"/>
@@ -1948,11 +1955,11 @@
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
     </row>
-    <row r="28" ht="20.1" customHeight="1">
+    <row r="28" ht="32.1" customHeight="1">
       <c r="A28" t="s" s="10">
         <v>53</v>
       </c>
-      <c r="B28" t="s" s="11">
+      <c r="B28" t="s" s="13">
         <v>54</v>
       </c>
       <c r="C28" s="12"/>
@@ -1981,22 +1988,22 @@
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
     </row>
-    <row r="31" ht="32.1" customHeight="1">
+    <row r="31" ht="20.1" customHeight="1">
       <c r="A31" t="s" s="10">
         <v>59</v>
       </c>
-      <c r="B31" t="s" s="13">
+      <c r="B31" t="s" s="11">
         <v>60</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
     </row>
-    <row r="32" ht="20.1" customHeight="1">
+    <row r="32" ht="32.1" customHeight="1">
       <c r="A32" t="s" s="10">
         <v>61</v>
       </c>
-      <c r="B32" t="s" s="11">
+      <c r="B32" t="s" s="13">
         <v>62</v>
       </c>
       <c r="C32" s="12"/>
@@ -2008,7 +2015,7 @@
         <v>63</v>
       </c>
       <c r="B33" t="s" s="11">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -2016,27 +2023,27 @@
     </row>
     <row r="34" ht="20.1" customHeight="1">
       <c r="A34" t="s" s="10">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s" s="11">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" ht="32.1" customHeight="1">
+    <row r="35" ht="20.1" customHeight="1">
       <c r="A35" t="s" s="10">
         <v>66</v>
       </c>
-      <c r="B35" t="s" s="13">
+      <c r="B35" t="s" s="11">
         <v>67</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
     </row>
-    <row r="36" ht="68.1" customHeight="1">
+    <row r="36" ht="32.1" customHeight="1">
       <c r="A36" t="s" s="10">
         <v>68</v>
       </c>
@@ -2047,11 +2054,11 @@
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
     </row>
-    <row r="37" ht="20.1" customHeight="1">
+    <row r="37" ht="68.1" customHeight="1">
       <c r="A37" t="s" s="10">
         <v>70</v>
       </c>
-      <c r="B37" t="s" s="11">
+      <c r="B37" t="s" s="13">
         <v>71</v>
       </c>
       <c r="C37" s="12"/>
@@ -2091,44 +2098,44 @@
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
     </row>
-    <row r="41" ht="32.1" customHeight="1">
+    <row r="41" ht="20.1" customHeight="1">
       <c r="A41" t="s" s="10">
         <v>78</v>
       </c>
-      <c r="B41" t="s" s="13">
+      <c r="B41" t="s" s="11">
         <v>79</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
     </row>
-    <row r="42" ht="20.1" customHeight="1">
+    <row r="42" ht="32.1" customHeight="1">
       <c r="A42" t="s" s="10">
         <v>80</v>
       </c>
-      <c r="B42" t="s" s="11">
+      <c r="B42" t="s" s="13">
         <v>81</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
     </row>
-    <row r="43" ht="68.1" customHeight="1">
+    <row r="43" ht="20.1" customHeight="1">
       <c r="A43" t="s" s="10">
         <v>82</v>
       </c>
-      <c r="B43" t="s" s="13">
+      <c r="B43" t="s" s="11">
         <v>83</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
     </row>
-    <row r="44" ht="20.1" customHeight="1">
+    <row r="44" ht="68.1" customHeight="1">
       <c r="A44" t="s" s="10">
         <v>84</v>
       </c>
-      <c r="B44" t="s" s="11">
+      <c r="B44" t="s" s="13">
         <v>85</v>
       </c>
       <c r="C44" s="12"/>
@@ -2179,16 +2186,27 @@
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
     </row>
-    <row r="49" ht="37.35" customHeight="1">
+    <row r="49" ht="20.1" customHeight="1">
       <c r="A49" t="s" s="10">
         <v>94</v>
       </c>
-      <c r="B49" t="s" s="13">
+      <c r="B49" t="s" s="11">
         <v>95</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
+    </row>
+    <row r="50" ht="37.35" customHeight="1">
+      <c r="A50" t="s" s="10">
+        <v>96</v>
+      </c>
+      <c r="B50" t="s" s="13">
+        <v>97</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
